--- a/ExcelArchive/template/WorkOrderTemplate.xlsx
+++ b/ExcelArchive/template/WorkOrderTemplate.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80635cf2a582287e/Desktop/Work Orders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whois\Coding\srs\ExcelArchive\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC10489AE15F5C2A5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D19B2C9-71DA-46C6-A182-B1A1042B5594}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550C206-E019-46D1-8623-B94E72717E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27300" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Part Number</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>EMPTY FOR NOW</t>
+  </si>
+  <si>
+    <t>Word Order Number:</t>
   </si>
 </sst>
 </file>
@@ -91,56 +94,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -177,17 +136,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -196,21 +144,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -220,67 +159,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,436 +500,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="21" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="9" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="87">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E4:F40"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="E5:F42"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>

--- a/ExcelArchive/template/WorkOrderTemplate.xlsx
+++ b/ExcelArchive/template/WorkOrderTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whois\Coding\srs\ExcelArchive\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550C206-E019-46D1-8623-B94E72717E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19CD1F0-5B6C-4EAC-9A31-56B1215027CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27300" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,34 +28,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Part Number</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
   </si>
   <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>Calibration Date</t>
-  </si>
-  <si>
     <t>Tool PN</t>
   </si>
   <si>
-    <t>EMPTY FOR NOW</t>
+    <t>Tool SN</t>
   </si>
   <si>
-    <t>Word Order Number:</t>
+    <t>Tool Cal Date</t>
+  </si>
+  <si>
+    <t>Work Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,14 +63,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,26 +96,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -155,55 +124,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +505,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,359 +516,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="123">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A39:B39"/>
@@ -861,54 +883,61 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -917,29 +946,50 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="E5:F42"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
